--- a/data/trans_camb/P35-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P35-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>14.29880282596461</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-7.658007455455379</v>
+        <v>-7.658007455455376</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>16.8055696317546</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.175963360976587</v>
+        <v>-3.479514929839347</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.023531282522814</v>
+        <v>7.249863861397005</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-13.28386734353916</v>
+        <v>-13.66538755842675</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9.130984485974851</v>
+        <v>8.625281456511292</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>13.14490065115844</v>
+        <v>13.12628907876591</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-18.34496450941443</v>
+        <v>-18.81661150217773</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>5.088777317737236</v>
+        <v>5.274150921455386</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>12.1067244911732</v>
+        <v>11.50053562721107</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-14.48911162123684</v>
+        <v>-14.09097867817152</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.86901315101148</v>
+        <v>10.66262606901518</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>21.77181147585906</v>
+        <v>21.94554059819993</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-1.726942566971061</v>
+        <v>-1.541410305548859</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>25.41120797675963</v>
+        <v>24.72282151906275</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>28.74727544340299</v>
+        <v>28.90864859718261</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-6.562925174017028</v>
+        <v>-6.779402598937515</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>16.02679730277619</v>
+        <v>15.64173195029017</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>23.3638692205904</v>
+        <v>22.98527986182266</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-6.10224746635271</v>
+        <v>-6.128713142486156</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.7029518638156634</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.3764798129918579</v>
+        <v>-0.3764798129918577</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.7241483981909517</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1354708524219232</v>
+        <v>-0.1497393333672864</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.2629982335728537</v>
+        <v>0.2932650587445317</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5523186737541791</v>
+        <v>-0.5750899988168772</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.3257356916342479</v>
+        <v>0.3025061302475245</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4793696616165831</v>
+        <v>0.4703798818281116</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6596301219938643</v>
+        <v>-0.6613255810676694</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2106261393886185</v>
+        <v>0.2054158270748662</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.4732757059895765</v>
+        <v>0.477921416295901</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.5742104027766035</v>
+        <v>-0.5691831823899975</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.6582046276738142</v>
+        <v>0.6331046409601226</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.305216011760566</v>
+        <v>1.338071648905377</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.08939545707125689</v>
+        <v>-0.09239000712097148</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.361799525710819</v>
+        <v>1.301947836281636</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.525425296281245</v>
+        <v>1.572162529812898</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.3521763194293612</v>
+        <v>-0.3528991262765276</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8363631690714229</v>
+        <v>0.8100911588188555</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.216848668218779</v>
+        <v>1.176907734942854</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.3118482757202989</v>
+        <v>-0.3114334865924174</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>3.422911258414546</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>8.328452413973803</v>
+        <v>8.328452413973814</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>12.98135276173058</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.752316085997881</v>
+        <v>8.387101052710277</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.4385069099498114</v>
+        <v>-1.109690967407988</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9.312233268276627</v>
+        <v>9.499059911180579</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5.577430934630359</v>
+        <v>5.901976875970217</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.613948384802893</v>
+        <v>-3.074630819326273</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.19763683836574</v>
+        <v>2.909119791940546</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>8.835988499859324</v>
+        <v>8.636968006082865</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.322439868324642</v>
+        <v>-0.08028250645496864</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>8.009800114726723</v>
+        <v>7.612318380108783</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>20.89995718452149</v>
+        <v>20.19414283725201</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.38203618828246</v>
+        <v>10.12291314627231</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>23.1991031959663</v>
+        <v>22.7323747889447</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.61463410660587</v>
+        <v>18.46669166779111</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>9.585083486601038</v>
+        <v>9.752677345816087</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>13.42317358103214</v>
+        <v>14.16566185175427</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>17.08367782183442</v>
+        <v>17.37556252472216</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>7.77542108837102</v>
+        <v>8.397843060679872</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>16.47088994404895</v>
+        <v>16.69779715228163</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.2053295869795668</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.7009838926727252</v>
+        <v>0.700983892672725</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.3502830434496886</v>
@@ -974,7 +974,7 @@
         <v>0.1040710248988745</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2532202891363383</v>
+        <v>0.2532202891363386</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.4618902697046115</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.3318482426654619</v>
+        <v>0.3262245260815924</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.01674854209829394</v>
+        <v>-0.0431398597587016</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3480192825201684</v>
+        <v>0.3646069763326981</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1544312453850131</v>
+        <v>0.1646638855191272</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.07839634788927735</v>
+        <v>-0.08736499208041441</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06174416940710278</v>
+        <v>0.08054004001130008</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2896988509774281</v>
+        <v>0.2843012680677486</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.0104627885959017</v>
+        <v>-0.00280734543619142</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2614356053724188</v>
+        <v>0.2541578344023074</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.032550796313435</v>
+        <v>0.9986638303748984</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5086528106947237</v>
+        <v>0.5098794306646828</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.174263311872067</v>
+        <v>1.080735474582899</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.5872366834399998</v>
+        <v>0.60402024291304</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3149671259478749</v>
+        <v>0.3177185907141375</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4621269946160784</v>
+        <v>0.4693617482058493</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6565797010007606</v>
+        <v>0.6614634321794479</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2978365880820893</v>
+        <v>0.3242638569327358</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.6302171808167981</v>
+        <v>0.6419459652834898</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>13.82539371390878</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>12.66921240736356</v>
+        <v>12.66921240736357</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.599742650265852</v>
+        <v>4.028035712713036</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.861851833122798</v>
+        <v>7.266235091168487</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8.416283257835969</v>
+        <v>8.660428277765456</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.16190664559999</v>
+        <v>3.594961532591243</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>8.039990797713797</v>
+        <v>7.772181717571133</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>4.766466001798532</v>
+        <v>4.966879970303313</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>5.674862965368765</v>
+        <v>5.268994067125495</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>9.375300932703201</v>
+        <v>9.565122085587808</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>8.519695395748068</v>
+        <v>8.650358151072073</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.41789566787021</v>
+        <v>16.50948473606422</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>19.06889255159686</v>
+        <v>19.24708618802229</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>20.09056303779041</v>
+        <v>21.26074734740501</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17.90905841899105</v>
+        <v>16.6633300435066</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>21.28921456155412</v>
+        <v>21.24704764255998</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>15.85888902726717</v>
+        <v>16.17914415857543</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>14.55228925998956</v>
+        <v>14.57004593537129</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>18.39950403125167</v>
+        <v>18.68936013487659</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>16.92978737307353</v>
+        <v>17.07544461985368</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.8564476882614058</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.7848252211047905</v>
+        <v>0.7848252211047908</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2013418265840853</v>
+        <v>0.2467670092731998</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.4150205367353713</v>
+        <v>0.465158114915497</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.5026105358766214</v>
+        <v>0.543237665675949</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1900226127877583</v>
+        <v>0.1584149445215747</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3631087875573098</v>
+        <v>0.3600722096582488</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2134887522911052</v>
+        <v>0.2061385556434347</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3086559771108676</v>
+        <v>0.2802099085731646</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.4950633784460007</v>
+        <v>0.5115245654451622</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.4551653292805058</v>
+        <v>0.4517259138735266</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.388008831162159</v>
+        <v>1.537863669472243</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.780252567499314</v>
+        <v>1.875245100268114</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.860591631626481</v>
+        <v>2.032163949822275</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.177605897030735</v>
+        <v>1.040413211761245</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.387081886132545</v>
+        <v>1.349470518701727</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.033822067113964</v>
+        <v>1.047371326080436</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.035233061771733</v>
+        <v>0.994618071113854</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.307002186584249</v>
+        <v>1.304748806171854</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.247118356093582</v>
+        <v>1.208707022525293</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>13.18727450187083</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>2.651707317678478</v>
+        <v>2.651707317678476</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-7.060007406609387</v>
+        <v>-7.643589046610916</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.457360797403636</v>
+        <v>6.630866448524373</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.361635543973961</v>
+        <v>-1.556562208190011</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.812235254605666</v>
+        <v>2.090814632851156</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>6.633755358397661</v>
+        <v>6.64818769873671</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-5.280290764875047</v>
+        <v>-5.608603051959227</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.992625244789956</v>
+        <v>-1.270230202170494</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>7.919915826271922</v>
+        <v>7.959043210492768</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.778283166607888</v>
+        <v>-1.970306268606556</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.559049711262917</v>
+        <v>4.690847170547106</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>18.82351558510787</v>
+        <v>19.07294455674008</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12.19154683056002</v>
+        <v>11.33769040257523</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15.43298581751278</v>
+        <v>15.55492648173698</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>20.05502494291599</v>
+        <v>19.96805585160175</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.653604222573298</v>
+        <v>6.522059009782623</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>8.287261677534943</v>
+        <v>7.952548773345633</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>17.49169211694076</v>
+        <v>17.64790020485429</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>6.776346215644333</v>
+        <v>6.691789901626639</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.6319373251565604</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.1270704442524563</v>
+        <v>0.1270704442524561</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3559946090438723</v>
+        <v>-0.3687441005913436</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.3145476708975189</v>
+        <v>0.3101061768177891</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.07080767870611639</v>
+        <v>-0.07785022368507206</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.06738272713830752</v>
+        <v>0.07581173668656666</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2440479551097406</v>
+        <v>0.2400239128654023</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1931669515752773</v>
+        <v>-0.2009840758504887</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.04896009803200779</v>
+        <v>-0.06331108612543382</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.3358881184489639</v>
+        <v>0.3458957348042132</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.07553741622392478</v>
+        <v>-0.08601268283169623</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3097112896998208</v>
+        <v>0.3059031144511923</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.256842110361368</v>
+        <v>1.291077002254188</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.7958432007798042</v>
+        <v>0.7702960558698594</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7291045563525489</v>
+        <v>0.7459302290418828</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9528694392001769</v>
+        <v>0.9484241213686554</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3109339896302913</v>
+        <v>0.3282097488113153</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4337572346042691</v>
+        <v>0.4197726378697803</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.9495502633406542</v>
+        <v>0.9461025306707347</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.3643977201901691</v>
+        <v>0.3481983897466943</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>30.95317319778249</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>20.00924570856833</v>
+        <v>20.00924570856834</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>22.39080149867354</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>5.524204412605521</v>
+        <v>5.632542370872843</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>23.42991816760612</v>
+        <v>23.04067871718017</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>12.91241409876628</v>
+        <v>12.1663591529987</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>13.22029268022257</v>
+        <v>13.60585131834846</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>28.0616696614184</v>
+        <v>28.20706312557513</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>8.729621785289849</v>
+        <v>9.350394691783709</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>11.99943685853259</v>
+        <v>12.16474381685433</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>28.14011922236692</v>
+        <v>28.4532108268217</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>13.07014925425588</v>
+        <v>13.0342301576233</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>19.61768686143779</v>
+        <v>19.68799705214659</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>39.26420362016844</v>
+        <v>38.90095345662375</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>26.64819680520584</v>
+        <v>26.70358944783889</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>30.58364944434463</v>
+        <v>30.03288932306761</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>43.92547892904587</v>
+        <v>44.56818054565255</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>23.13824174316277</v>
+        <v>22.89301702044039</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>22.76120315076382</v>
+        <v>23.2652451038669</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>39.62769586427368</v>
+        <v>39.59856422239054</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>23.44322003772823</v>
+        <v>23.33216634182117</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.4114452361382292</v>
+        <v>0.4423030475784395</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>1.831379949772638</v>
+        <v>1.822384031700237</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.9592681376657326</v>
+        <v>0.9137964960074911</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.6997090659357682</v>
+        <v>0.7613679792208192</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>1.494040335256865</v>
+        <v>1.524919531365346</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4568313349596496</v>
+        <v>0.5155357933011191</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8537445978804775</v>
+        <v>0.8540714702664481</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>1.96369147147341</v>
+        <v>1.968786650962768</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.8831713189118438</v>
+        <v>0.9151154031160154</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>3.038266224720804</v>
+        <v>2.958216831999942</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>6.17484958817305</v>
+        <v>6.07061511529663</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>4.158863329945333</v>
+        <v>4.198535015277376</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>3.146155012946049</v>
+        <v>2.934825339356395</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>4.45624386832869</v>
+        <v>4.55328350974339</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.431849073345492</v>
+        <v>2.486222508724569</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>2.429338928635774</v>
+        <v>2.51106455807265</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>4.262291695544413</v>
+        <v>4.322775575494579</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>2.550184675759662</v>
+        <v>2.622267659972385</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>7.989342485992617</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>6.739884974496979</v>
+        <v>6.739884974496974</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>11.30757272615567</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.1575174283496369</v>
+        <v>0.6972571256101266</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-5.436085776633428</v>
+        <v>-5.572366847422173</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1.631790892973034</v>
+        <v>1.344369456117168</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>6.569821995968633</v>
+        <v>5.836256138394996</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>0.8788428354407978</v>
+        <v>0.3153236619134798</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.001291180364511951</v>
+        <v>0.03186454156448408</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>5.25780197411576</v>
+        <v>5.63885242952992</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.992526536504688</v>
+        <v>-0.4488660334096317</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>2.403336301510337</v>
+        <v>2.277425205946673</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>15.5429157953181</v>
+        <v>15.95044721208689</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>9.162932267969374</v>
+        <v>9.038357559315347</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>14.77307446739212</v>
+        <v>15.03086645672649</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>22.33739436676849</v>
+        <v>22.40636775686932</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>15.76632772583832</v>
+        <v>15.97338412157065</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>13.38948457750419</v>
+        <v>13.93075357833593</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>17.16822988989689</v>
+        <v>16.70144238525094</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>9.955889584953006</v>
+        <v>10.11085962200058</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>12.25868236842992</v>
+        <v>12.02703023191123</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.3388042366633764</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2858184622810923</v>
+        <v>0.285818462281092</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.5065282769286518</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.009491382052544104</v>
+        <v>0.01478241825734715</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.2339702105704563</v>
+        <v>-0.2239479282849798</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.06242073986198526</v>
+        <v>0.06246594425435632</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.2454332393201646</v>
+        <v>0.2250684182816829</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.01286171799581528</v>
+        <v>0.01123667859626929</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.0001236851348873909</v>
+        <v>0.004965514628147659</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2039665150055558</v>
+        <v>0.2088956968832303</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.03861496805173002</v>
+        <v>-0.01749107717343093</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.09020650141963041</v>
+        <v>0.08707398597089652</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.8891598998928116</v>
+        <v>0.9565277390599268</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.5500711260696348</v>
+        <v>0.5362899666030871</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.8499911352231343</v>
+        <v>0.8944128370998354</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.162736530201008</v>
+        <v>1.196241890358207</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.794643840161477</v>
+        <v>0.8193238665181141</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.7001994812380764</v>
+        <v>0.7424019172039196</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.8439256074637173</v>
+        <v>0.8361754300581589</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.5249012649128268</v>
+        <v>0.5250146865513978</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.624816721532877</v>
+        <v>0.6281011409111085</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>8.871211621255515</v>
+        <v>8.995023131788345</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>12.40661392866459</v>
+        <v>12.35678273868992</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>6.695826812597329</v>
+        <v>6.801638937385958</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>14.24640222539276</v>
+        <v>14.30803798507661</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>16.40795710300403</v>
+        <v>16.60753141436967</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>15.34903417812638</v>
+        <v>15.02051868611279</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>13.09065922773182</v>
+        <v>12.88157602122373</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>15.9806726550116</v>
+        <v>15.9979290538686</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>12.33786453081385</v>
+        <v>12.11291492505063</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>17.99851717621191</v>
+        <v>18.16476675766481</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>21.64140276120406</v>
+        <v>21.72694616597132</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>15.56087982089256</v>
+        <v>14.99730348634989</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>23.65661383096981</v>
+        <v>23.24608107191144</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>25.5611794101801</v>
+        <v>26.47140277810241</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>23.6308616742118</v>
+        <v>23.56854379434676</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>19.73397343841325</v>
+        <v>19.37328250262021</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>22.58345450515043</v>
+        <v>22.68671472901809</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>18.52339924081391</v>
+        <v>18.5111976603895</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.5981105894872685</v>
+        <v>0.5845518262338013</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.8194873014398556</v>
+        <v>0.7977590400010403</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.4368028339325945</v>
+        <v>0.4479121507431784</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.8782628983767573</v>
+        <v>0.8968145042366968</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>1.027969966792092</v>
+        <v>1.024583770654988</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.9376154887392117</v>
+        <v>0.9197044288966782</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.8804992183822499</v>
+        <v>0.8436772832079732</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>1.057865554533531</v>
+        <v>1.065482141446805</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.8005771107705671</v>
+        <v>0.7998647605554368</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.631984243574201</v>
+        <v>1.628612298869829</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.98187330338606</v>
+        <v>1.979734962659743</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.443274757960299</v>
+        <v>1.360783690983414</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.924276368600402</v>
+        <v>1.94796880023124</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>2.108359619291206</v>
+        <v>2.229975917686248</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.967433761753909</v>
+        <v>1.988649216580957</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.643279455505139</v>
+        <v>1.590252559179473</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>1.880099737174718</v>
+        <v>1.880683747534819</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.52348167491906</v>
+        <v>1.522241597778216</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>4.978966905648871</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>43.48553845143309</v>
+        <v>43.4855384514331</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>5.904695875443469</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>1.017870460491881</v>
+        <v>0.4933527361905645</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-2.101444781836942</v>
+        <v>-2.173672606139441</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>36.20577814792313</v>
+        <v>35.94230327996834</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1.773088485052799</v>
+        <v>2.089945357195986</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>0.5217828257934796</v>
+        <v>0.6119635031033416</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>39.13762764277927</v>
+        <v>39.10229559095379</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>2.817336304865895</v>
+        <v>2.647427487732578</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>0.4347095328357111</v>
+        <v>0.5084127461418474</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>38.97148357756793</v>
+        <v>38.6671138046842</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>9.731991217511382</v>
+        <v>9.331125307459748</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>5.799796158742324</v>
+        <v>6.05226787675996</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>45.55783372847235</v>
+        <v>45.29234967725131</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>10.82747188850823</v>
+        <v>11.12505276477835</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>9.683437813112548</v>
+        <v>9.433385871634448</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>47.58127426955004</v>
+        <v>47.66635187984135</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>9.237988750432772</v>
+        <v>9.156041667715943</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>6.490084535262255</v>
+        <v>6.649161584213953</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>45.37240457890746</v>
+        <v>45.28330746477621</v>
       </c>
     </row>
     <row r="49">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.03782032880923842</v>
+        <v>0.02930331436944737</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.1044565372344959</v>
+        <v>-0.1045086030744614</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>1.674921632050978</v>
+        <v>1.624270679661418</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.07762518658654956</v>
+        <v>0.09044581082892755</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.02072814028555262</v>
+        <v>0.02011948202543371</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>1.605604881043777</v>
+        <v>1.624315955010868</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1314423555130772</v>
+        <v>0.1240347891965836</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.01919923865336052</v>
+        <v>0.02433375083479254</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>1.768590559421672</v>
+        <v>1.753636022997116</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.5659380823903027</v>
+        <v>0.5498608827865883</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.3440760987111616</v>
+        <v>0.3480394557866689</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>2.705791191331832</v>
+        <v>2.671062825092105</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.5763207387870168</v>
+        <v>0.5862138850113386</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.5095280091187852</v>
+        <v>0.4880087099686647</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>2.545214962797457</v>
+        <v>2.581035717808123</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.4980524718509315</v>
+        <v>0.4854289068543104</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.3528825629878802</v>
+        <v>0.352448929130794</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>2.445148345253138</v>
+        <v>2.472253898938051</v>
       </c>
     </row>
     <row r="52">
@@ -2367,7 +2367,7 @@
         <v>13.27922090986666</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>16.31950714808991</v>
+        <v>16.3195071480899</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>10.70245045746203</v>
@@ -2376,7 +2376,7 @@
         <v>11.88826055553441</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>16.62071870938206</v>
+        <v>16.62071870938205</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>6.422380644375238</v>
+        <v>6.48994697242652</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>8.049716118370569</v>
+        <v>8.33235871473088</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>14.5641482592504</v>
+        <v>14.70577044290974</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>10.68492799147491</v>
+        <v>10.60031607946291</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>10.77554994783617</v>
+        <v>11.10243079061028</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>14.34614127475226</v>
+        <v>14.3476832695069</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>9.090193491961832</v>
+        <v>9.219046853973973</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>10.11931205312681</v>
+        <v>10.26792281125857</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>15.00131842025873</v>
+        <v>15.0446257914721</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>10.56213393234781</v>
+        <v>10.55985951703798</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>12.46678847413154</v>
+        <v>12.5316627517625</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>19.08332145587742</v>
+        <v>19.12268777394885</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>15.07801984724563</v>
+        <v>15.07939721120851</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>15.23065818810831</v>
+        <v>15.72312528284074</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>18.35830178566853</v>
+        <v>18.10505858636906</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>12.17601160464625</v>
+        <v>12.23363754614232</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>13.2819187001964</v>
+        <v>13.33332246650617</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>18.00273259881637</v>
+        <v>17.98584942867111</v>
       </c>
     </row>
     <row r="55">
@@ -2472,7 +2472,7 @@
         <v>0.6159602135065376</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.7569847038081891</v>
+        <v>0.7569847038081888</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.5472699027639356</v>
@@ -2481,7 +2481,7 @@
         <v>0.6079063130559444</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.8499006043618977</v>
+        <v>0.8499006043618972</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.3481188552346004</v>
+        <v>0.3449561505631423</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.4387597273953923</v>
+        <v>0.4484832427435414</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.7722796433225662</v>
+        <v>0.7918498523586908</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.4735029579907021</v>
+        <v>0.4698795632750739</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.4778061998751382</v>
+        <v>0.4861353915337671</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.6340533245373785</v>
+        <v>0.6314412733912732</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.4502071697125454</v>
+        <v>0.4528030829451142</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.4960647250517711</v>
+        <v>0.5059571110432743</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.737046200877972</v>
+        <v>0.7416418250378066</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.6381300622341198</v>
+        <v>0.6325168611426772</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.743251019785555</v>
+        <v>0.7514870767009634</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>1.154654447932874</v>
+        <v>1.138665909015117</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.7461071272290791</v>
+        <v>0.7425702808748065</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.7429629770519389</v>
+        <v>0.7604818018221378</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.9030462116145954</v>
+        <v>0.8807438722299317</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.6463705432655595</v>
+        <v>0.6485833519459425</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.7045618998063785</v>
+        <v>0.7130247971162081</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.9602707157738705</v>
+        <v>0.9551851376047972</v>
       </c>
     </row>
     <row r="58">
